--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28687386836722056</v>
+        <v>0.28698251968432625</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28487436121613502</v>
+        <v>0.28487027843248786</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0043756643125448871</v>
+        <v>-0.0044333428824694151</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0010263971178004231</v>
+        <v>-0.0010399691952516956</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00018781675549805685</v>
+        <v>-0.00027128291572680853</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0011821007349096615</v>
+        <v>0.0011917950856776345</v>
       </c>
       <c r="H3" s="0">
-        <v>8.8320296141475893e-05</v>
+        <v>8.5421416729136192e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0034159396675923167</v>
+        <v>0.0034511262076645103</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0010959896638856326</v>
+        <v>-0.0010959889684617474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28697404680819844</v>
+        <v>0.28777303148396577</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0056852772044515606</v>
+        <v>0.0064282723151962672</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.1066600195587147e-05</v>
+        <v>-6.1088935323815301e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>7.3545834257297631e-06</v>
+        <v>6.5101179895907441e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00013088976578562992</v>
+        <v>-0.00013038780871126357</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0034523269275683458</v>
+        <v>-0.0033918824176551211</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.817351051767451e-08</v>
+        <v>-2.8491252093075452e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>5.1365271246217592e-05</v>
+        <v>5.1358271234369646e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28954142706469593</v>
+        <v>0.28985021166392105</v>
       </c>
       <c r="C5" s="0">
-        <v>0.013330594024204863</v>
+        <v>0.01288589476996024</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0039855131478898354</v>
+        <v>-0.0040078828246083512</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0020098664155189534</v>
+        <v>-0.0020226936317724025</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0019213469477838739</v>
+        <v>0.001916409962867861</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0078941083953179992</v>
+        <v>-0.0078980133735725225</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00034391454648543618</v>
+        <v>-0.00034479010584411308</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0013295531385834366</v>
+        <v>0.0013289655705242779</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00021928865113757245</v>
+        <v>0.00021928981240026957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3803366388535695</v>
+        <v>0.37999923310635941</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11744584140619384</v>
+        <v>0.11689400803544725</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00015978327725971433</v>
+        <v>-0.00015977753374392446</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010444351239595282</v>
+        <v>0.0010414541543217765</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00018409474037555141</v>
+        <v>0.00018464818064750261</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.027781585107766342</v>
+        <v>-0.027873517051278541</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>6.2208903370719604e-05</v>
+        <v>6.2205657044289708e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37450164561224908</v>
+        <v>0.37417052597053962</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.014151328532928002</v>
+        <v>-0.014120110846221006</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0031009698436848397</v>
+        <v>-0.0031194278383382015</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0024742809279379684</v>
+        <v>-0.0025013153741022145</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012815131757039919</v>
+        <v>0.012840295120547063</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.001836461273400288</v>
+        <v>0.0018318590433654453</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00076000696720979199</v>
+        <v>-0.00076000724107089246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.053070178828465986</v>
+        <v>-0.050660471133130047</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.40669399396100436</v>
+        <v>-0.40409623933608529</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.6837468930566528e-05</v>
+        <v>2.684922383907323e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0015021495593370959</v>
+        <v>-0.0015018551610716828</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00014021475763668727</v>
+        <v>-0.00014024361475369252</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.023707937311410427</v>
+        <v>-0.023565134641280704</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.004445633679742933</v>
+        <v>0.0044456264256826361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.16912199846600229</v>
+        <v>-0.1668699988931493</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.011661952954169115</v>
+        <v>-0.011858691367666251</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0032763639496234086</v>
+        <v>-0.003269092198539303</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.10870349211122862</v>
+        <v>-0.108583416822498</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0075891947294014937</v>
+        <v>0.0074945416448229446</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.002547565365002457</v>
+        <v>-0.0025429975446169674</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0026745352365669371</v>
+        <v>0.0026762982670196452</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00012617522348112864</v>
+        <v>-0.00012616973854132074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23658955634078541</v>
+        <v>0.24430361815279766</v>
       </c>
       <c r="C10" s="0">
-        <v>0.39851043738153963</v>
+        <v>0.40435612756054184</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0004931787395389425</v>
+        <v>-0.00049317307874291027</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0017694503524110685</v>
+        <v>0.0017683265799485017</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00049112185335353634</v>
+        <v>-0.00049101839588120105</v>
       </c>
       <c r="I10" s="0">
-        <v>0.034932997521486368</v>
+        <v>0.034685653523882524</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.03773145487631175</v>
+        <v>-0.037866726417982277</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0092144250205548894</v>
+        <v>0.0092144272741804811</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.48424543907216244</v>
+        <v>0.49031312796468396</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.035367216253273145</v>
+        <v>0.034420001535453479</v>
       </c>
       <c r="E11" s="0">
-        <v>0.019206795308500748</v>
+        <v>0.01911581259524308</v>
       </c>
       <c r="F11" s="0">
-        <v>0.18950437302853912</v>
+        <v>0.18877540207680757</v>
       </c>
       <c r="G11" s="0">
-        <v>0.010174484984198644</v>
+        <v>0.010193787644809046</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0007685991852745828</v>
+        <v>-0.00079631329278213045</v>
       </c>
       <c r="I11" s="0">
-        <v>0.021054047247868475</v>
+        <v>0.021183235549715407</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.026882434905728531</v>
+        <v>-0.026882416297360157</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.41286067996843312</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.016895472620550807</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00089726231537891766</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00017478520369325931</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.00012389032299918014</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.051686700233467157</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.043857158225405868</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28698251968432625</v>
+        <v>0.28679400558905305</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28487027843248786</v>
+        <v>0.2848104005123836</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0044333428824694151</v>
+        <v>-0.004408609125456207</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0010399691952516956</v>
+        <v>-0.0010357042435227188</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00027128291572680853</v>
+        <v>-0.0002309706455624625</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0011917950856776345</v>
+        <v>0.0012030659800810887</v>
       </c>
       <c r="H3" s="0">
-        <v>8.5421416729136192e-05</v>
+        <v>8.6710997821171231e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0034511262076645103</v>
+        <v>0.0034978918236086938</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.0010959889684617474</v>
+        <v>-0.0010959898636390131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28777303148396577</v>
+        <v>0.28875488128123933</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0064282723151962672</v>
+        <v>0.0074132931296398115</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-6.1088935323815301e-05</v>
+        <v>-6.1091897967519354e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>6.5101179895907441e-06</v>
+        <v>6.246038019144237e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.00013038780871126357</v>
+        <v>-0.00012995705546041143</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0033918824176551211</v>
+        <v>-0.0033353273435584047</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.8491252093075452e-08</v>
+        <v>-2.9126433793444109e-08</v>
       </c>
       <c r="K4" s="0">
-        <v>5.1358271234369646e-05</v>
+        <v>5.1347024616898995e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28985021166392105</v>
+        <v>0.2902702813805092</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01288589476996024</v>
+        <v>0.012376676664699918</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0040078828246083512</v>
+        <v>-0.0040224642691601533</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0020226936317724025</v>
+        <v>-0.0020312110008313838</v>
       </c>
       <c r="F5" s="0">
-        <v>0.001916409962867861</v>
+        <v>0.0019134667671416425</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0078980133735725225</v>
+        <v>-0.0079220135435707929</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00034479010584411308</v>
+        <v>-0.00034535443903767419</v>
       </c>
       <c r="I5" s="0">
-        <v>0.0013289655705242779</v>
+        <v>0.0013270054027892401</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00021928981240026957</v>
+        <v>0.0002192945172390659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37999923310635941</v>
+        <v>0.38123110182029063</v>
       </c>
       <c r="C6" s="0">
-        <v>0.11689400803544725</v>
+        <v>0.11770216577314242</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00015977753374392446</v>
+        <v>-0.00015977859979409063</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010414541543217765</v>
+        <v>0.0010341068734513424</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00018464818064750261</v>
+        <v>0.00018384565118746899</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.027873517051278541</v>
+        <v>-0.027861722987260886</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>6.2205657044289708e-05</v>
+        <v>6.2203729055188006e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37417052597053962</v>
+        <v>0.37494658737811926</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.014120110846221006</v>
+        <v>-0.014357309313873381</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0031194278383382015</v>
+        <v>-0.0032183872639277543</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0025013153741022145</v>
+        <v>-0.0026635777174963174</v>
       </c>
       <c r="G7" s="0">
-        <v>0.012840295120547063</v>
+        <v>0.012882962147058757</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0018318590433654453</v>
+        <v>0.0018317992222256201</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00076000724107089246</v>
+        <v>-0.00076000151615829292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.050660471133130047</v>
+        <v>-0.062269468244273207</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.40409623933608529</v>
+        <v>-0.41670369804642932</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>2.684922383907323e-05</v>
+        <v>2.6878917039940555e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0015018551610716828</v>
+        <v>-0.0015037439570785244</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00014024361475369252</v>
+        <v>-0.00013976429168027597</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.023565134641280704</v>
+        <v>-0.023341385767275975</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0044456264256826361</v>
+        <v>0.0044456575230316653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.1668699988931493</v>
+        <v>-0.17750356912606363</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.011858691367666251</v>
+        <v>-0.010903739924842641</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.003269092198539303</v>
+        <v>-0.0032826860403969158</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.108583416822498</v>
+        <v>-0.10873230740477302</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0074945416448229446</v>
+        <v>0.0076742286028086268</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0025429975446169674</v>
+        <v>-0.0025468454017771353</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0026762982670196452</v>
+        <v>0.0026834445434938889</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00012616973854132074</v>
+        <v>-0.00012619525630322426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.24430361815279766</v>
+        <v>0.23247090618430785</v>
       </c>
       <c r="C10" s="0">
-        <v>0.40435612756054184</v>
+        <v>0.40148314782559347</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00049317307874291027</v>
+        <v>-0.00049325596259895742</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0017683265799485017</v>
+        <v>0.0017905228433570683</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00049101839588120105</v>
+        <v>-0.00049044686862839595</v>
       </c>
       <c r="I10" s="0">
-        <v>0.034685653523882524</v>
+        <v>0.035087252832507132</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.037866726417982277</v>
+        <v>-0.03661716544895053</v>
       </c>
       <c r="K10" s="0">
-        <v>0.0092144272741804811</v>
+        <v>0.0092144200890917072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.49031312796468396</v>
+        <v>0.48549264936388969</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.034420001535453479</v>
+        <v>0.037062560695400038</v>
       </c>
       <c r="E11" s="0">
-        <v>0.01911581259524308</v>
+        <v>0.019579999332335323</v>
       </c>
       <c r="F11" s="0">
-        <v>0.18877540207680757</v>
+        <v>0.19197238358895735</v>
       </c>
       <c r="G11" s="0">
-        <v>0.010193787644809046</v>
+        <v>0.010345948098862124</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.00079631329278213045</v>
+        <v>-0.00067445518366966045</v>
       </c>
       <c r="I11" s="0">
-        <v>0.021183235549715407</v>
+        <v>0.021617776218629151</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.026882416297360157</v>
+        <v>-0.026882469570932516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.41286067996843312</v>
+        <v>0.30993530268904135</v>
       </c>
       <c r="C12" s="0">
-        <v>0.016895472620550807</v>
+        <v>-0.026849733568165106</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00089726231537891766</v>
+        <v>0.00095877531176858516</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00017478520369325931</v>
+        <v>-0.0099440039591475009</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.00012389032299918014</v>
+        <v>-0.011781598730124673</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.051686700233467157</v>
+        <v>-0.084167205228801681</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.043857158225405868</v>
+        <v>-0.04377358050037794</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.27596875740618343</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.028127115172243228</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.074180980128579183</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.090219841523994912</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0025869680956366534</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0019992660922488943</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.00074396519218730835</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.15840512835315984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.069266766014287801</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.13571580341743528</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0010928556333458482</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0004778449652825652</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-9.6914452803491887e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.069196289952621892</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.000122282970406562</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr2_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.28679400558905305</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.2848104005123836</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28875488128123933</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.2902702813805092</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.38123110182029063</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.37494658737811926</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>-0.062269468244273207</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.17750356912606363</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.23247090618430785</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.48549264936388969</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.30993530268904135</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.27596875740618343</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.069266766014287801</v>
+        <v>0.069710813169118813</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.13571580341743528</v>
+        <v>-0.11352804278340063</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0010928556333458482</v>
+        <v>-0.0011391017544072359</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0004778449652825652</v>
+        <v>-0.00056074907500643946</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-9.6914452803491887e-05</v>
+        <v>-0.010571199326797497</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.069196289952621892</v>
+        <v>-0.077873413206583503</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.000122282970406562</v>
+        <v>-0.0025854380908693075</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.33888134955825094</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.30254355160540608</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.0063596086204901004</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.00049936868056470185</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0086617794413104167</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.12057063050319949</v>
       </c>
     </row>
   </sheetData>
